--- a/data/working-experience_en.xlsx
+++ b/data/working-experience_en.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06563D9D-65D8-476D-BB78-414DDB12CDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E69EFE5-384E-4CAA-9484-B8F3262D1E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>what</t>
   </si>
@@ -43,9 +43,6 @@
     <t>2011 - 2014</t>
   </si>
   <si>
-    <t>University of Stirling</t>
-  </si>
-  <si>
     <t>Stirling, UK</t>
   </si>
   <si>
@@ -64,12 +61,6 @@
     <t>Jan. 2015 - Apr. 2019</t>
   </si>
   <si>
-    <t>Universidad El Bosque</t>
-  </si>
-  <si>
-    <t>Universidad de La Sabana</t>
-  </si>
-  <si>
     <t>Bogota, Colombia</t>
   </si>
   <si>
@@ -82,18 +73,9 @@
     <t>Auxiliar Professor</t>
   </si>
   <si>
-    <t>Universidad Pedagógica Nacional</t>
-  </si>
-  <si>
     <t>Co-supervision of Doctoral Students:  Francisco Javier Flores (Professional Doctorate in Counselling Psychology, University of East London, UK – 2016‑2018)</t>
   </si>
   <si>
-    <t>Researcher at the Human Behaviour Analysis Lab (LACH)</t>
-  </si>
-  <si>
-    <t>Leader of the Cognitive Processes and Education research group (Procesos Cognoscitivos y Educación) (since 2016)</t>
-  </si>
-  <si>
     <t>Supervision of a variety of undergraduate research projects associated with psychology and biology</t>
   </si>
   <si>
@@ -103,18 +85,12 @@
     <t>Member of the Advisory Committee on Research Ethics</t>
   </si>
   <si>
-    <t>Methodological and statistical advisor for postgraduate and faculty research projects</t>
-  </si>
-  <si>
     <t>Organiser of the Nerd Café weekly conference series of the Faculty of Psychology (2016-2017)</t>
   </si>
   <si>
     <t>Postdoctoral stay (2018-2019)</t>
   </si>
   <si>
-    <t>Co-supervision of Doctoral Students: Milena Vásquez-Amézquita (PhD in Neuroscience, University of Valencia, Spain – 2015-2018)</t>
-  </si>
-  <si>
     <t>Teaching and supervision of research projects</t>
   </si>
   <si>
@@ -125,16 +101,46 @@
   </si>
   <si>
     <t>Supervision of research projects</t>
+  </si>
+  <si>
+    <t>\href{https://asesores-psic.netlify.app/}{Methodological and statistical advisor} for postgraduate and faculty research projects</t>
+  </si>
+  <si>
+    <t>Co-supervision of Doctoral Students:  \href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita} (PhD in Neuroscience, University of Valencia, Spain – 2015-2018)</t>
+  </si>
+  <si>
+    <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}</t>
+  </si>
+  <si>
+    <t>\href{https://www.unisabana.edu.co/}{Universidad de La Sabana}</t>
+  </si>
+  <si>
+    <t>\href{https://www.stir.ac.uk/}{University of Stirling}</t>
+  </si>
+  <si>
+    <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}</t>
+  </si>
+  <si>
+    <t>Leader of the \href{https://investigaciones.unbosque.edu.co/codec}{\textit{\textbf{CODEC}: Cognitive and Behavioural Sciences}} research group (since 2016)</t>
+  </si>
+  <si>
+    <t>Researcher at \href{https://jdleongomez.info/es/team/}{\textit{\textbf{EvoCo}: Human Behaviour and Evolution Lab}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,9 +166,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,189 +454,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="70" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="119.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="121.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+      <c r="B19" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>2010</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/working-experience_en.xlsx
+++ b/data/working-experience_en.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E69EFE5-384E-4CAA-9484-B8F3262D1E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A322B5-BC26-4747-9E7A-3C652F53174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="1890" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>why</t>
   </si>
   <si>
-    <t>Teaching Assistant</t>
-  </si>
-  <si>
     <t>2011 - 2014</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Researcher at \href{https://jdleongomez.info/es/team/}{\textit{\textbf{EvoCo}: Human Behaviour and Evolution Lab}}</t>
+  </si>
+  <si>
+    <t>Recognised Teacher in Psychology</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,19 +488,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -509,7 +509,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -545,24 +545,24 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -625,41 +625,41 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,24 +668,24 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
         <v>2010</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
